--- a/test_siyousyo/総合テスト仕様書.xlsx
+++ b/test_siyousyo/総合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030818\Documents\GitHub\Tanihataya\test_siyousyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEB6DF-ACC4-4426-B6DE-5528A33A6EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A4FC7-5395-4943-9D80-C35A384E3F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>作成者</t>
   </si>
@@ -391,16 +391,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>その他を選択するとその他の商品一覧に移行出来ること</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品一覧画面</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンイチラン</t>
@@ -701,6 +691,145 @@
     </rPh>
     <rPh sb="18" eb="22">
       <t>イコウデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他を選択するとその他の商品一覧に移行出来ること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニューからユーザー名、アカウント情報、購入一覧、出品一覧、ログアウトが確認できる</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>コウニュウイチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント情報を選択するとアカウント情報画面に移行出来ること</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ジョウホウガメン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>イコウデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入一覧を選択すると購入一覧画面に移行出来ること</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウイチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コウニュウイチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出品一覧を選択すると出品一覧画面に移行出来ること</t>
+    <rPh sb="0" eb="2">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イコウデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトを選択するとログイン画面に移行すること</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録で登録した内容を確認出来ること</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カクニンデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面情報</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面移行</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -790,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1223,13 +1352,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,16 +1480,157 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,148 +1657,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59:M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1836,23 +2040,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,21 +2067,21 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1888,44 +2092,44 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1934,372 +2138,372 @@
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A6" s="32">
+      <c r="A6" s="53">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="50" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="50" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="50" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="65" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A23" s="19">
@@ -2308,1292 +2512,2595 @@
       <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A24" s="74">
+      <c r="A24" s="29">
         <v>3</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71" t="s">
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="50" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="20" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="50" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="50" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="20" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="20" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-    </row>
-    <row r="31" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A32" s="74">
-        <v>4</v>
-      </c>
-      <c r="B32" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-    </row>
-    <row r="34" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A35" s="74">
-        <v>5</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-    </row>
-    <row r="36" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
     </row>
     <row r="37" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
+      <c r="A37" s="29">
+        <v>4</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-    </row>
-    <row r="39" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+    </row>
+    <row r="40" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A40" s="29">
+        <v>5</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A41" s="74">
-        <v>6</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-    </row>
-    <row r="45" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-    </row>
-    <row r="46" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+    </row>
+    <row r="45" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+    </row>
+    <row r="46" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A46" s="29">
+        <v>6</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A47" s="74">
-        <v>7</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-    </row>
-    <row r="49" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="77" t="s">
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+    </row>
+    <row r="49" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+    </row>
+    <row r="50" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+    </row>
+    <row r="51" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+    </row>
+    <row r="52" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A52" s="29">
+        <v>7</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-    </row>
-    <row r="50" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A50" s="15">
-        <v>41</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-    </row>
-    <row r="51" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A51" s="12">
-        <v>42</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-    </row>
-    <row r="52" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A52" s="11">
-        <v>43</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A53" s="12">
-        <v>44</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-    </row>
-    <row r="54" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A54" s="12">
-        <v>45</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+    </row>
+    <row r="54" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A55" s="11">
-        <v>46</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
+      <c r="A55" s="15">
+        <v>41</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
     </row>
     <row r="56" spans="1:17" ht="11.25" customHeight="1">
       <c r="A56" s="12">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="C56" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-    </row>
-    <row r="57" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A57" s="12">
-        <v>48</v>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+    </row>
+    <row r="57" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A57" s="11">
+        <v>43</v>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-    </row>
-    <row r="58" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+    </row>
+    <row r="58" spans="1:17" ht="11.25" customHeight="1">
       <c r="A58" s="12">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A59" s="11">
-        <v>31</v>
+      <c r="A59" s="12">
+        <v>45</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
       <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
     </row>
     <row r="60" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A60" s="12">
-        <v>32</v>
+      <c r="A60" s="11">
+        <v>46</v>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
       <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" spans="1:17" ht="11.25" customHeight="1">
       <c r="A61" s="12">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
       <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A62" s="11">
-        <v>34</v>
+      <c r="A62" s="12">
+        <v>48</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
       <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A63" s="12">
-        <v>35</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="12"/>
+      <c r="A63" s="15">
+        <v>41</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
     </row>
     <row r="64" spans="1:17" ht="11.25" customHeight="1">
       <c r="A64" s="12">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O64" s="12"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+    </row>
+    <row r="65" spans="1:17" ht="11.25" customHeight="1">
       <c r="A65" s="11">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
       <c r="N65" s="12"/>
-    </row>
-    <row r="66" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O65" s="12"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+    </row>
+    <row r="66" spans="1:17" ht="11.25" customHeight="1">
       <c r="A66" s="12">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
       <c r="N66" s="12"/>
-    </row>
-    <row r="67" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
+      <c r="O66" s="12"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+    </row>
+    <row r="67" spans="1:17" ht="11.25" customHeight="1">
       <c r="A67" s="12">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
       <c r="N67" s="12"/>
-    </row>
-    <row r="68" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O67" s="12"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+    </row>
+    <row r="68" spans="1:17" ht="11.25" customHeight="1">
       <c r="A68" s="11">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
       <c r="N68" s="12"/>
-    </row>
-    <row r="69" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A69" s="12">
+      <c r="O68" s="12"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+    </row>
+    <row r="69" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A69" s="15">
         <v>41</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="12"/>
-    </row>
-    <row r="70" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
+      <c r="B69" s="17"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+    </row>
+    <row r="70" spans="1:17" ht="11.25" customHeight="1">
       <c r="A70" s="12">
         <v>42</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
       <c r="N70" s="12"/>
-    </row>
-    <row r="71" spans="1:14" ht="11.25" customHeight="1" thickBot="1">
+      <c r="O70" s="12"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+    </row>
+    <row r="71" spans="1:17" ht="11.25" customHeight="1">
       <c r="A71" s="11">
         <v>43</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
       <c r="N71" s="12"/>
-    </row>
-    <row r="72" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O71" s="12"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+    </row>
+    <row r="72" spans="1:17" ht="11.25" customHeight="1">
       <c r="A72" s="12">
         <v>44</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
       <c r="N72" s="12"/>
-    </row>
-    <row r="73" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O72" s="12"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+    </row>
+    <row r="73" spans="1:17" ht="11.25" customHeight="1">
       <c r="A73" s="12">
         <v>45</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
       <c r="N73" s="12"/>
-    </row>
-    <row r="74" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O73" s="12"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+    </row>
+    <row r="74" spans="1:17" ht="11.25" customHeight="1">
       <c r="A74" s="11">
         <v>46</v>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="12"/>
-    </row>
-    <row r="75" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O74" s="12"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+    </row>
+    <row r="75" spans="1:17" ht="11.25" customHeight="1">
       <c r="A75" s="12">
         <v>47</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
       <c r="N75" s="12"/>
-    </row>
-    <row r="76" spans="1:14" ht="11.25" customHeight="1">
+      <c r="O75" s="12"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+    </row>
+    <row r="76" spans="1:17" ht="11.25" customHeight="1">
       <c r="A76" s="12">
         <v>48</v>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
       <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+    </row>
+    <row r="77" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A77" s="12">
+        <v>44</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+    </row>
+    <row r="78" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A78" s="12">
+        <v>45</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+    </row>
+    <row r="79" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A79" s="11">
+        <v>46</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+    </row>
+    <row r="80" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A80" s="12">
+        <v>47</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+    </row>
+    <row r="81" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A81" s="12">
+        <v>48</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+    </row>
+    <row r="82" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A82" s="12">
+        <v>42</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+    </row>
+    <row r="83" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A83" s="11">
+        <v>43</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+    </row>
+    <row r="84" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A84" s="12">
+        <v>44</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+    </row>
+    <row r="85" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A85" s="12">
+        <v>45</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+    </row>
+    <row r="86" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A86" s="11">
+        <v>46</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+    </row>
+    <row r="87" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A87" s="12">
+        <v>47</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+    </row>
+    <row r="88" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A88" s="12">
+        <v>48</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+    </row>
+    <row r="89" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A89" s="15">
+        <v>41</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+    </row>
+    <row r="90" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A90" s="12">
+        <v>42</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+    </row>
+    <row r="91" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A91" s="11">
+        <v>43</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+    </row>
+    <row r="92" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A92" s="12">
+        <v>44</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="28"/>
+    </row>
+    <row r="93" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A93" s="12">
+        <v>45</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
+    </row>
+    <row r="94" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A94" s="15">
+        <v>41</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+    </row>
+    <row r="95" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A95" s="12">
+        <v>42</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+    </row>
+    <row r="96" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A96" s="11">
+        <v>43</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+    </row>
+    <row r="97" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A97" s="12">
+        <v>44</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28"/>
+    </row>
+    <row r="98" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A98" s="12">
+        <v>45</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="28"/>
+      <c r="Q98" s="28"/>
+    </row>
+    <row r="99" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A99" s="15">
+        <v>41</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
+      <c r="L99" s="47"/>
+      <c r="M99" s="47"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="47"/>
+    </row>
+    <row r="100" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A100" s="12">
+        <v>42</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
+    </row>
+    <row r="101" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A101" s="11">
+        <v>43</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+    </row>
+    <row r="102" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A102" s="12">
+        <v>44</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="28"/>
+    </row>
+    <row r="103" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A103" s="12">
+        <v>45</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+    </row>
+    <row r="104" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A104" s="11">
+        <v>46</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+    </row>
+    <row r="105" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A105" s="12">
+        <v>47</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="28"/>
+    </row>
+    <row r="106" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A106" s="12">
+        <v>48</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+    </row>
+    <row r="107" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A107" s="12">
+        <v>48</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+    </row>
+    <row r="108" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A108" s="15">
+        <v>41</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="47"/>
+      <c r="Q108" s="47"/>
+    </row>
+    <row r="109" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A109" s="12">
+        <v>42</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="28"/>
+    </row>
+    <row r="110" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A110" s="11">
+        <v>43</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+    </row>
+    <row r="111" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A111" s="12">
+        <v>44</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="28"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="28"/>
+      <c r="Q111" s="28"/>
+    </row>
+    <row r="112" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A112" s="12">
+        <v>45</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28"/>
+    </row>
+    <row r="113" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A113" s="11">
+        <v>46</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="28"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="28"/>
+      <c r="Q113" s="28"/>
+    </row>
+    <row r="114" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A114" s="12">
+        <v>47</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="28"/>
+      <c r="Q114" s="28"/>
+    </row>
+    <row r="115" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A115" s="12">
+        <v>48</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="28"/>
+      <c r="Q115" s="28"/>
+    </row>
+    <row r="116" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A116" s="11">
+        <v>31</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="82"/>
+      <c r="J116" s="82"/>
+      <c r="K116" s="82"/>
+      <c r="L116" s="82"/>
+      <c r="M116" s="83"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="80"/>
+    </row>
+    <row r="117" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A117" s="12">
+        <v>32</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="28"/>
+    </row>
+    <row r="118" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A118" s="12">
+        <v>33</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+    </row>
+    <row r="119" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A119" s="11">
+        <v>34</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="28"/>
+    </row>
+    <row r="120" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A120" s="12">
+        <v>35</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
+    </row>
+    <row r="121" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A121" s="12">
+        <v>36</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="47"/>
+      <c r="L121" s="47"/>
+      <c r="M121" s="47"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="28"/>
+    </row>
+    <row r="122" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A122" s="11">
+        <v>37</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="28"/>
+    </row>
+    <row r="123" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A123" s="12">
+        <v>38</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="47"/>
+      <c r="Q123" s="47"/>
+    </row>
+    <row r="124" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A124" s="12">
+        <v>39</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="28"/>
+    </row>
+    <row r="125" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A125" s="11">
+        <v>40</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="28"/>
+    </row>
+    <row r="126" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A126" s="12">
+        <v>41</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="28"/>
+    </row>
+    <row r="127" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A127" s="12">
+        <v>42</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="28"/>
+    </row>
+    <row r="128" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A128" s="11">
+        <v>43</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="28"/>
+    </row>
+    <row r="129" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A129" s="12">
+        <v>44</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="28"/>
+    </row>
+    <row r="130" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A130" s="12">
+        <v>45</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="28"/>
+    </row>
+    <row r="131" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A131" s="11">
+        <v>46</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="47"/>
+      <c r="Q131" s="47"/>
+    </row>
+    <row r="132" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A132" s="12">
+        <v>47</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="28"/>
+      <c r="Q132" s="28"/>
+    </row>
+    <row r="133" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A133" s="12">
+        <v>48</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:M75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:M76"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="C64:G67"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="C59:G62"/>
-    <mergeCell ref="H59:M59"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C18:G21"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C24:G31"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
+  <mergeCells count="374">
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="H36:M36"/>
     <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="H34:M34"/>
     <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:M131"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:M132"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:M133"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:M128"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:M129"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:M130"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:M125"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:M126"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:M127"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:M120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="C121:G124"/>
+    <mergeCell ref="H121:M121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="H122:M122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="H123:M123"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="H124:M124"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="C116:G119"/>
+    <mergeCell ref="H116:M116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="H117:M117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="H118:M118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="H119:M119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:M115"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:M111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:M112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:M108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:M109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:M110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:M105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:M106"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:M107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:M102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:M103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:M104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:M99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:M101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:M94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="H97:M97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H90:M90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="H91:M91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="H92:M92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="H93:M93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:M87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:M82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:M83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:M84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="C6:G9"/>
+    <mergeCell ref="C10:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H24:M24"/>
@@ -3612,6 +5119,98 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C24:G36"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C18:G21"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="H8:M8"/>
@@ -3620,19 +5219,71 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="C6:G9"/>
-    <mergeCell ref="C10:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H75:M75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:M76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:M78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:M79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:M80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:M81"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="C75:G75"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/test_siyousyo/総合テスト仕様書.xlsx
+++ b/test_siyousyo/総合テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3030818\Documents\GitHub\Tanihataya\test_siyousyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8ECF3F-8147-4355-BA96-26F50AA8F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418A4BD-6BA4-412B-B2CD-5935A3EC8112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>総合テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -811,6 +811,223 @@
     </rPh>
     <rPh sb="12" eb="16">
       <t>ガメンイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報を変更を選択すると現在登録中のデータを含んだ新規登録画面に移行すること</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>トウロクチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品編集を選択すると商品編集画面に移行出来ること</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イコウデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品の画像を選択すると商品詳細画面に移行出来ること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品画像を確認出来ること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カクニンデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名を確認出来ること</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入商品一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出品商品一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュッピン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録を選択すると出品一覧に移行出来ること</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シュッピンイチラン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イコウデキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の画面を選択するとエクスプローラーのピクチャーを開くこと</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像のゴミ箱マークを押すとアップロードした画像が削除されること</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル、値段、商品説明を問題なく入力できること</t>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショウヒンセツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択出来ること</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -894,7 +1111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1558,13 +1775,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,22 +1882,232 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,7 +2125,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1704,24 +2146,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1731,10 +2155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,196 +2164,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2287,40 +2528,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:M26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="7.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="7" customWidth="1"/>
-    <col min="8" max="16" width="10.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="7" customWidth="1"/>
+    <col min="3" max="5" width="7.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="7" customWidth="1"/>
+    <col min="8" max="16" width="10.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2331,21 +2572,21 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2375,25 +2616,25 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="107"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -2402,2453 +2643,2461 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="70" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="71"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="83"/>
       <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="71"/>
+      <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A6" s="34">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="36" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="48" t="s">
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="49"/>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="50"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="53" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="81" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="80"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="78" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="74"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="25">
         <v>2</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="96" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A13" s="61">
+      <c r="A13" s="99">
         <v>3</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="94" t="s">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="84" t="s">
+      <c r="P13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="86"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="93" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="63" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="50"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="93" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="50"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="93" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="50"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="63" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="50"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="63" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="50"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="63" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="70"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="63" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="63" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="63" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="121" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="123"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="63" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="121" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="123"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A27" s="62"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="63" t="s">
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A28" s="61">
+      <c r="A28" s="99">
         <v>4</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="99" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="94" t="s">
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="63" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="95" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A31" s="61">
+      <c r="A31" s="99">
         <v>5</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="99" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="94" t="s">
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="63" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="63" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="63" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="63" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="95" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A37" s="61">
+      <c r="A37" s="99">
         <v>6</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="99" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="94" t="s">
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="63" t="s">
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
     </row>
     <row r="39" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A39" s="62"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="63" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A40" s="62"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="63" t="s">
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
     </row>
     <row r="41" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="63" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="95" t="s">
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
     </row>
     <row r="43" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A43" s="61">
+      <c r="A43" s="99">
         <v>7</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="99" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="94" t="s">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="94"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
     </row>
     <row r="44" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A44" s="62"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="93" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A45" s="69"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="90" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="92"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="81"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="24">
-        <v>41</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="99">
+        <v>8</v>
+      </c>
+      <c r="B46" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="93" t="s">
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
     </row>
     <row r="47" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A47" s="23">
-        <v>42</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="60" t="s">
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="63" t="s">
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A48" s="22">
-        <v>43</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="63" t="s">
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-    </row>
-    <row r="49" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A49" s="23">
-        <v>44</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+    </row>
+    <row r="49" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
     </row>
     <row r="50" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A50" s="23">
-        <v>45</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
+      <c r="A50" s="99">
+        <v>9</v>
+      </c>
+      <c r="B50" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
     </row>
     <row r="51" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A51" s="22">
-        <v>46</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
     </row>
     <row r="52" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A52" s="23">
-        <v>47</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
     </row>
     <row r="53" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A53" s="23">
-        <v>48</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-    </row>
-    <row r="54" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A54" s="24">
-        <v>41</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+    </row>
+    <row r="54" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
     </row>
     <row r="55" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A55" s="23">
-        <v>42</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
+      <c r="A55" s="99">
+        <v>10</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="65"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
     </row>
     <row r="56" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A56" s="22">
-        <v>43</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
     </row>
     <row r="57" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A57" s="23">
-        <v>44</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-    </row>
-    <row r="58" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A58" s="23">
-        <v>45</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+    </row>
+    <row r="58" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A58" s="102"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
     </row>
     <row r="59" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A59" s="22">
-        <v>46</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
+      <c r="A59" s="99">
+        <v>11</v>
+      </c>
+      <c r="B59" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
     </row>
     <row r="60" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A60" s="24">
-        <v>41</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A61" s="23">
-        <v>42</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A62" s="22">
-        <v>43</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-    </row>
-    <row r="63" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A63" s="23">
-        <v>44</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+    </row>
+    <row r="63" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A63" s="102"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
     </row>
     <row r="64" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A64" s="23">
+      <c r="A64" s="24">
         <v>45</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
     </row>
     <row r="65" spans="1:17" ht="11.25" customHeight="1">
       <c r="A65" s="22">
         <v>46</v>
       </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
-      <c r="P65" s="60"/>
-      <c r="Q65" s="60"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" ht="11.25" customHeight="1">
       <c r="A66" s="23">
         <v>47</v>
       </c>
       <c r="B66" s="11"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="60"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
     </row>
     <row r="67" spans="1:17" ht="11.25" customHeight="1">
       <c r="A67" s="23">
         <v>48</v>
       </c>
       <c r="B67" s="11"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="60"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
     </row>
     <row r="68" spans="1:17" ht="11.25" customHeight="1">
       <c r="A68" s="23">
         <v>44</v>
       </c>
       <c r="B68" s="11"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
     </row>
     <row r="69" spans="1:17" ht="11.25" customHeight="1">
       <c r="A69" s="23">
         <v>45</v>
       </c>
       <c r="B69" s="11"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
     </row>
     <row r="70" spans="1:17" ht="11.25" customHeight="1">
       <c r="A70" s="22">
         <v>46</v>
       </c>
       <c r="B70" s="11"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
       <c r="N70" s="23"/>
       <c r="O70" s="24"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
     </row>
     <row r="71" spans="1:17" ht="11.25" customHeight="1">
       <c r="A71" s="23">
         <v>47</v>
       </c>
       <c r="B71" s="11"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
     </row>
     <row r="72" spans="1:17" ht="11.25" customHeight="1">
       <c r="A72" s="23">
         <v>48</v>
       </c>
       <c r="B72" s="11"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
     </row>
     <row r="73" spans="1:17" ht="11.25" customHeight="1">
       <c r="A73" s="23">
         <v>42</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
     </row>
     <row r="74" spans="1:17" ht="11.25" customHeight="1">
       <c r="A74" s="22">
         <v>43</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="60"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="1:17" ht="11.25" customHeight="1">
       <c r="A75" s="23">
         <v>44</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
     </row>
     <row r="76" spans="1:17" ht="11.25" customHeight="1">
       <c r="A76" s="23">
         <v>45</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="60"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
     </row>
     <row r="77" spans="1:17" ht="11.25" customHeight="1">
       <c r="A77" s="22">
         <v>46</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="60"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
-      <c r="P77" s="60"/>
-      <c r="Q77" s="60"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="A78" s="23">
         <v>47</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
-      <c r="P78" s="60"/>
-      <c r="Q78" s="60"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
     </row>
     <row r="79" spans="1:17" ht="11.25" customHeight="1">
       <c r="A79" s="23">
         <v>48</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
     </row>
     <row r="80" spans="1:17" ht="11.25" customHeight="1">
       <c r="A80" s="24">
         <v>41</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
-      <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
     </row>
     <row r="81" spans="1:17" ht="11.25" customHeight="1">
       <c r="A81" s="23">
         <v>42</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
     </row>
     <row r="82" spans="1:17" ht="11.25" customHeight="1">
       <c r="A82" s="22">
         <v>43</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
     </row>
     <row r="83" spans="1:17" ht="11.25" customHeight="1">
       <c r="A83" s="23">
         <v>44</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
     </row>
     <row r="84" spans="1:17" ht="11.25" customHeight="1">
       <c r="A84" s="23">
         <v>45</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="60"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
-      <c r="P84" s="60"/>
-      <c r="Q84" s="60"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
     </row>
     <row r="85" spans="1:17" ht="11.25" customHeight="1">
       <c r="A85" s="24">
         <v>41</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="47"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
       <c r="N85" s="24"/>
       <c r="O85" s="24"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
     </row>
     <row r="86" spans="1:17" ht="11.25" customHeight="1">
       <c r="A86" s="23">
         <v>42</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
     </row>
     <row r="87" spans="1:17" ht="11.25" customHeight="1">
       <c r="A87" s="22">
         <v>43</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
     </row>
     <row r="88" spans="1:17" ht="11.25" customHeight="1">
       <c r="A88" s="23">
         <v>44</v>
       </c>
       <c r="B88" s="11"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
     </row>
     <row r="89" spans="1:17" ht="11.25" customHeight="1">
       <c r="A89" s="23">
         <v>45</v>
       </c>
       <c r="B89" s="11"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
     </row>
     <row r="90" spans="1:17" ht="11.25" customHeight="1">
       <c r="A90" s="24">
         <v>41</v>
       </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
     </row>
     <row r="91" spans="1:17" ht="11.25" customHeight="1">
       <c r="A91" s="23">
         <v>42</v>
       </c>
       <c r="B91" s="11"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
     </row>
     <row r="92" spans="1:17" ht="11.25" customHeight="1">
       <c r="A92" s="22">
         <v>43</v>
       </c>
       <c r="B92" s="11"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
     </row>
     <row r="93" spans="1:17" ht="11.25" customHeight="1">
       <c r="A93" s="23">
         <v>44</v>
       </c>
       <c r="B93" s="11"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
     </row>
     <row r="94" spans="1:17" ht="11.25" customHeight="1">
       <c r="A94" s="23">
         <v>45</v>
       </c>
       <c r="B94" s="11"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="60"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="60"/>
-      <c r="M94" s="60"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="60"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
     </row>
     <row r="95" spans="1:17" ht="11.25" customHeight="1">
       <c r="A95" s="22">
         <v>46</v>
       </c>
       <c r="B95" s="11"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="60"/>
-      <c r="M95" s="60"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
-      <c r="P95" s="60"/>
-      <c r="Q95" s="60"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
     </row>
     <row r="96" spans="1:17" ht="11.25" customHeight="1">
       <c r="A96" s="23">
         <v>47</v>
       </c>
       <c r="B96" s="11"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="60"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="60"/>
-      <c r="M96" s="60"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
-      <c r="P96" s="60"/>
-      <c r="Q96" s="60"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
     </row>
     <row r="97" spans="1:17" ht="11.25" customHeight="1">
       <c r="A97" s="23">
         <v>48</v>
       </c>
       <c r="B97" s="11"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="60"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="31"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
-      <c r="P97" s="60"/>
-      <c r="Q97" s="60"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
     </row>
     <row r="98" spans="1:17" ht="11.25" customHeight="1">
       <c r="A98" s="23">
         <v>48</v>
       </c>
       <c r="B98" s="11"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="60"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
-      <c r="P98" s="60"/>
-      <c r="Q98" s="60"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
     </row>
     <row r="99" spans="1:17" ht="11.25" customHeight="1">
       <c r="A99" s="24">
         <v>41</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-      <c r="M99" s="47"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="47"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32"/>
     </row>
     <row r="100" spans="1:17" ht="11.25" customHeight="1">
       <c r="A100" s="23">
         <v>42</v>
       </c>
       <c r="B100" s="11"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="60"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="60"/>
-      <c r="M100" s="60"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
-      <c r="P100" s="60"/>
-      <c r="Q100" s="60"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="31"/>
     </row>
     <row r="101" spans="1:17" ht="11.25" customHeight="1">
       <c r="A101" s="22">
         <v>43</v>
       </c>
       <c r="B101" s="11"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
-      <c r="P101" s="60"/>
-      <c r="Q101" s="60"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="31"/>
     </row>
     <row r="102" spans="1:17" ht="11.25" customHeight="1">
       <c r="A102" s="23">
         <v>44</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="60"/>
-      <c r="M102" s="60"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
-      <c r="P102" s="60"/>
-      <c r="Q102" s="60"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="31"/>
     </row>
     <row r="103" spans="1:17" ht="11.25" customHeight="1">
       <c r="A103" s="23">
         <v>45</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
-      <c r="M103" s="60"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
-      <c r="P103" s="60"/>
-      <c r="Q103" s="60"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="31"/>
     </row>
     <row r="104" spans="1:17" ht="11.25" customHeight="1">
       <c r="A104" s="22">
         <v>46</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
-      <c r="P104" s="60"/>
-      <c r="Q104" s="60"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="31"/>
     </row>
     <row r="105" spans="1:17" ht="11.25" customHeight="1">
       <c r="A105" s="23">
         <v>47</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="31"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
-      <c r="P105" s="60"/>
-      <c r="Q105" s="60"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="31"/>
     </row>
     <row r="106" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A106" s="23">
         <v>48</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+      <c r="M106" s="31"/>
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60"/>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="31"/>
     </row>
     <row r="107" spans="1:17" ht="11.25" customHeight="1">
       <c r="A107" s="22">
         <v>31</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="48" t="s">
+      <c r="C107" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="111" t="s">
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-      <c r="L107" s="112"/>
-      <c r="M107" s="113"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="50"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
-      <c r="P107" s="114"/>
-      <c r="Q107" s="115"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="52"/>
     </row>
     <row r="108" spans="1:17" ht="11.25" customHeight="1">
       <c r="A108" s="23">
         <v>32</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="87"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="60" t="s">
+      <c r="C108" s="38"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I108" s="60"/>
-      <c r="J108" s="60"/>
-      <c r="K108" s="60"/>
-      <c r="L108" s="60"/>
-      <c r="M108" s="60"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+      <c r="M108" s="31"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
-      <c r="P108" s="60"/>
-      <c r="Q108" s="60"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
     </row>
     <row r="109" spans="1:17" ht="11.25" customHeight="1">
       <c r="A109" s="23">
         <v>33</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="60" t="s">
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="60"/>
-      <c r="L109" s="60"/>
-      <c r="M109" s="60"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="31"/>
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
-      <c r="P109" s="60"/>
-      <c r="Q109" s="60"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="31"/>
     </row>
     <row r="110" spans="1:17" ht="11.25" customHeight="1">
       <c r="A110" s="22">
         <v>34</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="109"/>
-      <c r="E110" s="109"/>
-      <c r="F110" s="109"/>
-      <c r="G110" s="110"/>
-      <c r="H110" s="116" t="s">
+      <c r="C110" s="45"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I110" s="116"/>
-      <c r="J110" s="116"/>
-      <c r="K110" s="116"/>
-      <c r="L110" s="116"/>
-      <c r="M110" s="116"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
-      <c r="P110" s="60"/>
-      <c r="Q110" s="60"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="31"/>
     </row>
     <row r="111" spans="1:17" ht="11.25" customHeight="1">
       <c r="A111" s="23">
         <v>35</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="117" t="s">
+      <c r="C111" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="117"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="117" t="s">
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I111" s="117"/>
-      <c r="J111" s="117"/>
-      <c r="K111" s="117"/>
-      <c r="L111" s="117"/>
-      <c r="M111" s="117"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="34"/>
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
-      <c r="P111" s="60"/>
-      <c r="Q111" s="60"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="31"/>
     </row>
     <row r="112" spans="1:17" ht="11.25" customHeight="1">
       <c r="A112" s="23">
         <v>36</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="47" t="s">
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="47"/>
-      <c r="M112" s="47"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
-      <c r="P112" s="60"/>
-      <c r="Q112" s="60"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="31"/>
     </row>
     <row r="113" spans="1:17" ht="11.25" customHeight="1">
       <c r="A113" s="22">
         <v>37</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="87"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
-      <c r="G113" s="89"/>
-      <c r="H113" s="60" t="s">
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I113" s="60"/>
-      <c r="J113" s="60"/>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="31"/>
     </row>
     <row r="114" spans="1:17" ht="11.25" customHeight="1">
       <c r="A114" s="23">
         <v>38</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="87"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="88"/>
-      <c r="G114" s="89"/>
-      <c r="H114" s="60" t="s">
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I114" s="60"/>
-      <c r="J114" s="60"/>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
+      <c r="M114" s="31"/>
       <c r="N114" s="23"/>
       <c r="O114" s="24"/>
-      <c r="P114" s="47"/>
-      <c r="Q114" s="47"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32"/>
     </row>
     <row r="115" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A115" s="23">
         <v>39</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="119"/>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
-      <c r="G115" s="120"/>
-      <c r="H115" s="64" t="s">
+      <c r="C115" s="41"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="64"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
       <c r="N115" s="23"/>
       <c r="O115" s="23"/>
-      <c r="P115" s="60"/>
-      <c r="Q115" s="60"/>
+      <c r="P115" s="31"/>
+      <c r="Q115" s="31"/>
     </row>
     <row r="116" spans="1:17" ht="11.25" customHeight="1">
       <c r="A116" s="22">
         <v>40</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="60"/>
-      <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="60"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="31"/>
       <c r="N116" s="23"/>
       <c r="O116" s="23"/>
-      <c r="P116" s="60"/>
-      <c r="Q116" s="60"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="31"/>
     </row>
     <row r="117" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A117" s="23">
         <v>41</v>
       </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="60"/>
-      <c r="K117" s="60"/>
-      <c r="L117" s="60"/>
-      <c r="M117" s="60"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="31"/>
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
-      <c r="P117" s="60"/>
-      <c r="Q117" s="60"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="31"/>
     </row>
     <row r="118" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A118" s="23">
@@ -4857,23 +5106,23 @@
       <c r="B118" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="97"/>
-      <c r="G118" s="97"/>
-      <c r="H118" s="97" t="s">
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I118" s="97"/>
-      <c r="J118" s="97"/>
-      <c r="K118" s="97"/>
-      <c r="L118" s="97"/>
-      <c r="M118" s="97"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
       <c r="N118" s="23"/>
       <c r="O118" s="23"/>
-      <c r="P118" s="60"/>
-      <c r="Q118" s="60"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="31"/>
     </row>
     <row r="119" spans="1:17" ht="11.25" customHeight="1" thickBot="1">
       <c r="A119" s="22">
@@ -4882,299 +5131,268 @@
       <c r="B119" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="97" t="s">
+      <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="97"/>
-      <c r="E119" s="97"/>
-      <c r="F119" s="97"/>
-      <c r="G119" s="97"/>
-      <c r="H119" s="97" t="s">
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I119" s="97"/>
-      <c r="J119" s="97"/>
-      <c r="K119" s="97"/>
-      <c r="L119" s="97"/>
-      <c r="M119" s="97"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
       <c r="N119" s="23"/>
       <c r="O119" s="23"/>
-      <c r="P119" s="60"/>
-      <c r="Q119" s="60"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
     </row>
     <row r="120" spans="1:17" ht="11.25" customHeight="1">
       <c r="A120" s="23">
         <v>44</v>
       </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="60"/>
-      <c r="J120" s="60"/>
-      <c r="K120" s="60"/>
-      <c r="L120" s="60"/>
-      <c r="M120" s="60"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="31"/>
       <c r="N120" s="23"/>
       <c r="O120" s="23"/>
-      <c r="P120" s="60"/>
-      <c r="Q120" s="60"/>
+      <c r="P120" s="31"/>
+      <c r="Q120" s="31"/>
     </row>
     <row r="121" spans="1:17" ht="11.25" customHeight="1">
       <c r="A121" s="23">
         <v>45</v>
       </c>
       <c r="B121" s="11"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60"/>
-      <c r="L121" s="60"/>
-      <c r="M121" s="60"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="31"/>
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
+      <c r="P121" s="31"/>
+      <c r="Q121" s="31"/>
     </row>
     <row r="122" spans="1:17" ht="11.25" customHeight="1">
       <c r="A122" s="22">
         <v>46</v>
       </c>
       <c r="B122" s="11"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60"/>
-      <c r="F122" s="60"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="60"/>
-      <c r="J122" s="60"/>
-      <c r="K122" s="60"/>
-      <c r="L122" s="60"/>
-      <c r="M122" s="60"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="31"/>
+      <c r="M122" s="31"/>
       <c r="N122" s="23"/>
       <c r="O122" s="24"/>
-      <c r="P122" s="47"/>
-      <c r="Q122" s="47"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
     </row>
     <row r="123" spans="1:17" ht="11.25" customHeight="1">
       <c r="A123" s="23">
         <v>47</v>
       </c>
       <c r="B123" s="11"/>
-      <c r="C123" s="60"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="60"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="60"/>
-      <c r="K123" s="60"/>
-      <c r="L123" s="60"/>
-      <c r="M123" s="60"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
-      <c r="P123" s="60"/>
-      <c r="Q123" s="60"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="31"/>
     </row>
     <row r="124" spans="1:17" ht="11.25" customHeight="1">
       <c r="A124" s="23">
         <v>48</v>
       </c>
       <c r="B124" s="11"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
-      <c r="M124" s="60"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="31"/>
+      <c r="M124" s="31"/>
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
-      <c r="P124" s="60"/>
-      <c r="Q124" s="60"/>
+      <c r="P124" s="31"/>
+      <c r="Q124" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="H122:M122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="H123:M123"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="H124:M124"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="H119:M119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="H120:M120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="H121:M121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="H116:M116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="H117:M117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="H118:M118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="H111:M111"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="C112:G115"/>
-    <mergeCell ref="H112:M112"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="H113:M113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="H114:M114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="H115:M115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="H104:M104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="H105:M105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="C107:G110"/>
-    <mergeCell ref="H107:M107"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="H108:M108"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="H109:M109"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="H110:M110"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:M106"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="H101:M101"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="H102:M102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="H103:M103"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="H98:M98"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="H99:M99"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="H100:M100"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:M95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="H96:M96"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="H97:M97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H92:M92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="H93:M93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="H94:M94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:M90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="H91:M91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="H81:M81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="H82:M82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="H83:M83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="H84:M84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="H86:M86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="H87:M87"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:M78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:M79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:M80"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:M75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:M76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:M77"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
+  <mergeCells count="325">
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:G58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="C59:G63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C28:G30"/>
+    <mergeCell ref="C31:G36"/>
+    <mergeCell ref="C37:G42"/>
+    <mergeCell ref="C43:G45"/>
+    <mergeCell ref="C50:G54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="H6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:Q8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="C6:G10"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="A13:A27"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="C47:G49"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C13:G27"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -5199,158 +5417,172 @@
     <mergeCell ref="H26:M26"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="B13:B27"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C13:G27"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H58:M58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:M59"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="H6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:Q8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="C6:G10"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:M75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:M76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:M78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:M79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:M80"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H81:M81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="H82:M82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="H83:M83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="H84:M84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="H87:M87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:M90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:M91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:M92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:M93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:M94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:M97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:M99"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:M101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:M102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:M103"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:M104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:M105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="C107:G110"/>
+    <mergeCell ref="H107:M107"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="H108:M108"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="H109:M109"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="H110:M110"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:M106"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:M111"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="C112:G115"/>
+    <mergeCell ref="H112:M112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="H113:M113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="H114:M114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="H115:M115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:M116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:M117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:M118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:M119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:M120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:M121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:M122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:M123"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:M124"/>
+    <mergeCell ref="P124:Q124"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
